--- a/biology/Microbiologie/Kahliellidae/Kahliellidae.xlsx
+++ b/biology/Microbiologie/Kahliellidae/Kahliellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Kahliellidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Kahliella (de Kahlia, genre décrit par Horvath en 1932), et ella), dédié à Alfred Kahl qui fut une sommité dans le domaine des protozoaires ciliés.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pertinence de la famille des Kahliellidae est discutée. Berger, en 2007, faisait à ce propos le commentaire suivant : « Les Kahliellidae Tuffrau, 1979 sont un groupe modérément important d'hypotriches (ou stichotriches). La plupart des genres (Deviata, Kahliella, Neogeneia, Parakahliella, Pseudokahliella, Trachelochaeta, Wallackia) appartenant peut-être à ce groupe ont été établis au cours des trois dernières décennies.L'apomorphie[note 1] supposée des Kahliellidae est la conservation des cirres parentaux après la division cellulaire qui n'est, malheureusement, pas une caractéristique très forte. Plusieurs Kahliellidae ont un appareil buccal semblable au genre Gonostomum Sterki, 1878 (de l'ordre des Oxytrichida et la famille des Oxytrichidae), indiquant une relation étroite entre ce genre et la famille des Kahliellidae[1]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pertinence de la famille des Kahliellidae est discutée. Berger, en 2007, faisait à ce propos le commentaire suivant : « Les Kahliellidae Tuffrau, 1979 sont un groupe modérément important d'hypotriches (ou stichotriches). La plupart des genres (Deviata, Kahliella, Neogeneia, Parakahliella, Pseudokahliella, Trachelochaeta, Wallackia) appartenant peut-être à ce groupe ont été établis au cours des trois dernières décennies.L'apomorphie[note 1] supposée des Kahliellidae est la conservation des cirres parentaux après la division cellulaire qui n'est, malheureusement, pas une caractéristique très forte. Plusieurs Kahliellidae ont un appareil buccal semblable au genre Gonostomum Sterki, 1878 (de l'ordre des Oxytrichida et la famille des Oxytrichidae), indiquant une relation étroite entre ce genre et la famille des Kahliellidae. »
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 février 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 février 2023) :
 Afrokahliella Berger, 2011
 Balladinopsis Ghosh, 1921
 Balladyna Kowalewski, 1882
@@ -585,10 +603,10 @@
 Engelmanniella Foissner, 1982
 Erionella Yankovskij, 1978
 Fragmocirrus Foissner, 2000
-Kahlia Horvath, 1932[3]
+Kahlia Horvath, 1932
 Kahliela Tucolesco, 1962
-Kahliella Corliss, 1960[4] genre type Synonyme : Plesiotricha Dragesco, 1970
-Espèce type : Kahlia acrobates Horvath, 1932[3]
+Kahliella Corliss, 1960 genre type Synonyme : Plesiotricha Dragesco, 1970
+Espèce type : Kahlia acrobates Horvath, 1932
 Keronopsis Penard, 1922
 Lacazea Dragesco, 1960
 Neogeneia Eigner, 1995
@@ -602,9 +620,9 @@
 Stylonethes Sterki, 1878
 Tetmemena Eigner, 1999
 Wallackia Foissner, 1976
-Selon The Taxonomicon  (15 février 2023)[5] :
+Selon The Taxonomicon  (15 février 2023) :
 Balladyna Kowalewsky, 1882
-Banyulsella Dragesco, 1953[1954]
+Banyulsella Dragesco, 1953
 Lacazea Dragesco, 1960
 Cladotricha Gaievskaia, 1925
 Deviata Eigner, 1995
@@ -616,7 +634,7 @@
 Parentocirrus Voss, 1997
 Pseudokahliella Berger et al., 1985
 Trachelochaeta Šrámek-Hušek, 1954
-Wallackia Foissner, 1977[1976]</t>
+Wallackia Foissner, 1977</t>
         </is>
       </c>
     </row>
@@ -644,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Kahliellidae Tuffrau, 1979[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Kahliellidae Tuffrau, 1979.
 </t>
         </is>
       </c>
@@ -675,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Michel Tuffrau, « Une Nouvelle Famille d'Hypotriches, Kahliellidae n. fam., et ses Consequences dans la Repartition des Stichotrichina », Transactions of the American Microscopical Society, Wiley, vol. 98, no 4,‎ octobre 1979, p. 521 (ISSN 0003-0023 et 2325-5145, DOI 10.2307/3225902)</t>
         </is>
